--- a/Income/KDP_inc.xlsx
+++ b/Income/KDP_inc.xlsx
@@ -2176,16 +2176,16 @@
         <v>0.5438</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.5426</v>
+        <v>0.5513</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.5493</v>
+        <v>0.5582</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.5572</v>
+        <v>0.5661</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.5613</v>
+        <v>0.5703</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.5631</v>
@@ -3700,16 +3700,16 @@
         <v>0.2726</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.2895</v>
+        <v>0.2763</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.2822</v>
+        <v>0.2688</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.2836</v>
+        <v>0.2701</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.2866</v>
+        <v>0.273</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0.2593</v>
